--- a/Narnia/book history/hands of checklist.xlsx
+++ b/Narnia/book history/hands of checklist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="147">
   <si>
     <t>Luna dominate?</t>
   </si>
@@ -472,6 +472,15 @@
   </si>
   <si>
     <t>Halfdwarf-Half Archenlander king of archenland whos grandmother is jadis and is the of Narnia dyansty. Reinorkolonie Huge(6.36K)</t>
+  </si>
+  <si>
+    <t>24/01/19 v61.2</t>
+  </si>
+  <si>
+    <t>14.93K</t>
+  </si>
+  <si>
+    <t>Dylis changed branches twice, telmar invaded narnia, kingitanga changed name due to culture conversion, Mellonia joined elisian concordat?</t>
   </si>
 </sst>
 </file>
@@ -800,7 +809,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -808,11 +817,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,10 +841,10 @@
     <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -893,13 +902,16 @@
       <c r="S1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -958,8 +970,11 @@
       <c r="S3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1018,8 +1033,11 @@
       <c r="S4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1078,8 +1096,11 @@
       <c r="S5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1138,8 +1159,11 @@
       <c r="S6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1198,8 +1222,11 @@
       <c r="S7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1258,8 +1285,11 @@
       <c r="S8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1318,8 +1348,11 @@
       <c r="S9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1378,8 +1411,11 @@
       <c r="S10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1438,8 +1474,11 @@
       <c r="S11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1498,8 +1537,11 @@
       <c r="S12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1558,8 +1600,11 @@
       <c r="S13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1618,8 +1663,11 @@
       <c r="S14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1678,8 +1726,11 @@
       <c r="S15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1734,8 +1785,11 @@
       <c r="S16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1794,8 +1848,11 @@
       <c r="S17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1847,11 +1904,14 @@
       <c r="R18" t="s">
         <v>134</v>
       </c>
-      <c r="S18">
-        <v>14.93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S18" t="s">
+        <v>145</v>
+      </c>
+      <c r="T18">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1906,8 +1966,11 @@
       <c r="S19">
         <v>11.52</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1962,8 +2025,11 @@
       <c r="S20">
         <v>24.44</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2022,8 +2088,11 @@
       <c r="S21" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2082,8 +2151,11 @@
       <c r="S22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -2096,8 +2168,11 @@
       <c r="S23">
         <v>14.91</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -2113,8 +2188,11 @@
         <f>SUM(11.72+1.45+3.63+3.85+1.13+1.27+1.45+0.558+1.98)</f>
         <v>27.038</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>121</v>
       </c>
@@ -2127,8 +2205,11 @@
       <c r="S25">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -2141,8 +2222,11 @@
       <c r="S26">
         <v>11.42</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>124</v>
       </c>
@@ -2155,8 +2239,11 @@
       <c r="S27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -2166,8 +2253,11 @@
       <c r="S28">
         <v>1.57</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>125</v>
       </c>
@@ -2180,8 +2270,11 @@
       <c r="S29" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>131</v>
       </c>
@@ -2191,8 +2284,11 @@
       <c r="S30">
         <v>910</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30">
+        <v>11.59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -2202,8 +2298,11 @@
       <c r="S31" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="T31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>99</v>
       </c>
@@ -2227,6 +2326,9 @@
       </c>
       <c r="S32" s="1" t="s">
         <v>143</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Narnia/book history/hands of checklist.xlsx
+++ b/Narnia/book history/hands of checklist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="154">
   <si>
     <t>Luna dominate?</t>
   </si>
@@ -481,6 +481,27 @@
   </si>
   <si>
     <t>Dylis changed branches twice, telmar invaded narnia, kingitanga changed name due to culture conversion, Mellonia joined elisian concordat?</t>
+  </si>
+  <si>
+    <t>Palyatrossi</t>
+  </si>
+  <si>
+    <t>6.88K</t>
+  </si>
+  <si>
+    <t>10.2k</t>
+  </si>
+  <si>
+    <t>26K</t>
+  </si>
+  <si>
+    <t>4k</t>
+  </si>
+  <si>
+    <t>3k</t>
+  </si>
+  <si>
+    <t>chaos due to conquest cb</t>
   </si>
 </sst>
 </file>
@@ -529,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -537,6 +558,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,7 +831,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -817,11 +839,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,10 +863,10 @@
     <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -905,13 +927,16 @@
       <c r="T1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" s="3">
+        <v>43819</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -973,8 +998,11 @@
       <c r="T3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1036,8 +1064,11 @@
       <c r="T4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1099,8 +1130,11 @@
       <c r="T5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1162,8 +1196,11 @@
       <c r="T6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1225,8 +1262,11 @@
       <c r="T7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1288,8 +1328,11 @@
       <c r="T8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1351,8 +1394,11 @@
       <c r="T9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1414,8 +1460,11 @@
       <c r="T10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1477,8 +1526,11 @@
       <c r="T11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1540,8 +1592,11 @@
       <c r="T12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1603,8 +1658,11 @@
       <c r="T13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1666,8 +1724,11 @@
       <c r="T14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1729,8 +1790,11 @@
       <c r="T15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1788,8 +1852,11 @@
       <c r="T16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1851,8 +1918,11 @@
       <c r="T17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1910,8 +1980,11 @@
       <c r="T18">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1969,8 +2042,11 @@
       <c r="T19">
         <v>25.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <v>23.33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2028,8 +2104,11 @@
       <c r="T20">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2091,8 +2170,11 @@
       <c r="T21" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2154,8 +2236,11 @@
       <c r="T22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -2171,8 +2256,11 @@
       <c r="T23">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -2191,8 +2279,11 @@
       <c r="T24">
         <v>30.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>121</v>
       </c>
@@ -2208,8 +2299,11 @@
       <c r="T25">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -2225,8 +2319,11 @@
       <c r="T26">
         <v>6.11</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>124</v>
       </c>
@@ -2242,8 +2339,11 @@
       <c r="T27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -2256,8 +2356,11 @@
       <c r="T28">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>125</v>
       </c>
@@ -2273,8 +2376,11 @@
       <c r="T29" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>131</v>
       </c>
@@ -2287,8 +2393,11 @@
       <c r="T30">
         <v>11.59</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -2301,8 +2410,11 @@
       <c r="T31" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="U31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>99</v>
       </c>
@@ -2329,6 +2441,9 @@
       </c>
       <c r="T32" s="1" t="s">
         <v>146</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
